--- a/IEEEXtreme Camp Program.xlsx
+++ b/IEEEXtreme Camp Program.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fatih\IEEE\Computer Society\IEEEXtreme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fatih\IEEE\Computer Society\IEEEXtreme\IEEEXtreme-Turkiye-Camp-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C284FB-0E66-4867-9FFD-97876CDEF315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616E7623-7589-49C9-A71B-28ED5098688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>Recursion, Complexities, Brute-force</t>
   </si>
   <si>
-    <t>Sieve, GCD, LCM,Fast Exp</t>
-  </si>
-  <si>
     <t>FINAL CONTEST</t>
   </si>
   <si>
@@ -46,26 +43,16 @@
     <t>11:15-12:15</t>
   </si>
   <si>
-    <t>Inverse Mod, Prefix Sum - Suffix Sum</t>
-  </si>
-  <si>
     <t>Coin Problem, Knapsack Problem</t>
   </si>
   <si>
     <t>12:30-13:30</t>
   </si>
   <si>
-    <t>Sorting (Insertion, Bubble, Merge, Quick)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Two Pointers - Sliding Window</t>
   </si>
   <si>
     <t>LIS, LCS</t>
-  </si>
-  <si>
-    <t>Linear Search / Binary Search
-Using Binary Search for the answer</t>
   </si>
   <si>
     <t>Shortest Path (Dijkstra)</t>
@@ -145,6 +132,18 @@
   </si>
   <si>
     <t>Linear Data Structures</t>
+  </si>
+  <si>
+    <t>Search Algorithms</t>
+  </si>
+  <si>
+    <t>Sorting Algorithms</t>
+  </si>
+  <si>
+    <t>Number Theory</t>
+  </si>
+  <si>
+    <t>Prefix Sum - Suffix Sum</t>
   </si>
 </sst>
 </file>
@@ -675,7 +674,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -692,19 +691,19 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -726,20 +725,20 @@
     </row>
     <row r="2" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -769,16 +768,16 @@
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -801,17 +800,17 @@
     <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="3"/>
@@ -834,20 +833,20 @@
     </row>
     <row r="5" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="6" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="3"/>
@@ -871,17 +870,17 @@
     <row r="6" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="3"/>
@@ -904,20 +903,20 @@
     </row>
     <row r="7" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="3"/>
@@ -940,22 +939,22 @@
     </row>
     <row r="8" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="3"/>
@@ -978,7 +977,7 @@
     </row>
     <row r="9" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>2</v>
@@ -987,16 +986,16 @@
         <v>3</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1018,19 +1017,19 @@
     <row r="10" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="28"/>
       <c r="I10" s="3"/>
@@ -1052,22 +1051,22 @@
     </row>
     <row r="11" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G11" s="28"/>
       <c r="I11" s="3"/>
@@ -1090,19 +1089,19 @@
     <row r="12" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="28"/>
       <c r="I12" s="3"/>
@@ -1124,22 +1123,22 @@
     </row>
     <row r="13" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="3"/>
@@ -1161,20 +1160,20 @@
     </row>
     <row r="14" spans="1:24" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G14" s="28"/>
       <c r="I14" s="3"/>

--- a/IEEEXtreme Camp Program.xlsx
+++ b/IEEEXtreme Camp Program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fatih\IEEE\Computer Society\IEEEXtreme\IEEEXtreme-Turkiye-Camp-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616E7623-7589-49C9-A71B-28ED5098688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522C1399-4C84-45E6-9731-0950D774138E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>LIS, LCS</t>
-  </si>
-  <si>
-    <t>Shortest Path (Dijkstra)</t>
   </si>
   <si>
     <t>Grid, Tiling, Problem solving</t>
@@ -112,16 +109,6 @@
     <t>Depth First Search, Breadth First Search</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction to Graphs:
-- Basic Terms (Directed, Undirected, Weighted, Unweighted, Loops, Parallel Edges, Simple Graph, Multigraphs)
-</t>
-  </si>
-  <si>
-    <t>Continue the Graphs:
-- Adjacency List, Adjacency Matrix, Edge List, DAG.    
-- Trees: Basic Terms (Rooted, Unrooted, Spanning Trees)</t>
-  </si>
-  <si>
     <t>Greedy algorithm, Dynamic Programming, Basic concepts of DP, Fibonacci with DP</t>
   </si>
   <si>
@@ -144,6 +131,16 @@
   </si>
   <si>
     <t>Prefix Sum - Suffix Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Graphs
+</t>
+  </si>
+  <si>
+    <t>Continue the Graphs</t>
+  </si>
+  <si>
+    <t>Shortest Path Problem</t>
   </si>
 </sst>
 </file>
@@ -673,8 +670,8 @@
   <dimension ref="A1:X1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -691,19 +688,19 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -725,20 +722,20 @@
     </row>
     <row r="2" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -768,13 +765,13 @@
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>4</v>
@@ -831,7 +828,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -840,10 +837,10 @@
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>7</v>
@@ -910,10 +907,10 @@
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>10</v>
@@ -939,22 +936,22 @@
     </row>
     <row r="8" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="3"/>
@@ -977,7 +974,7 @@
     </row>
     <row r="9" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>2</v>
@@ -989,13 +986,13 @@
         <v>9</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="G9" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1051,22 +1048,22 @@
     </row>
     <row r="11" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="28"/>
       <c r="I11" s="3"/>
@@ -1123,22 +1120,22 @@
     </row>
     <row r="13" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="3"/>
@@ -1160,20 +1157,20 @@
     </row>
     <row r="14" spans="1:24" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="28"/>
       <c r="I14" s="3"/>

--- a/IEEEXtreme Camp Program.xlsx
+++ b/IEEEXtreme Camp Program.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fatih\IEEE\Computer Society\IEEEXtreme\IEEEXtreme-Turkiye-Camp-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522C1399-4C84-45E6-9731-0950D774138E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119213C9-ED45-46F1-88C5-D083F13433F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foundation" sheetId="1" r:id="rId1"/>
+    <sheet name="Program" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -109,9 +109,6 @@
     <t>Depth First Search, Breadth First Search</t>
   </si>
   <si>
-    <t>Greedy algorithm, Dynamic Programming, Basic concepts of DP, Fibonacci with DP</t>
-  </si>
-  <si>
     <t>Welcoming and Settling</t>
   </si>
   <si>
@@ -133,14 +130,16 @@
     <t>Prefix Sum - Suffix Sum</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction to Graphs
-</t>
-  </si>
-  <si>
     <t>Continue the Graphs</t>
   </si>
   <si>
     <t>Shortest Path Problem</t>
+  </si>
+  <si>
+    <t>Greedy algorithm, Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Introduction to Graphs</t>
   </si>
 </sst>
 </file>
@@ -671,7 +670,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -726,7 +725,7 @@
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -756,7 +755,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -765,13 +764,13 @@
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>4</v>
@@ -837,10 +836,10 @@
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>7</v>
@@ -907,7 +906,7 @@
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>28</v>
@@ -942,7 +941,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>21</v>
@@ -986,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>11</v>
@@ -1054,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>12</v>
@@ -1126,7 +1125,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>12</v>
